--- a/20241203_A班_感想まとめ.xlsx
+++ b/20241203_A班_感想まとめ.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
@@ -762,6 +762,25 @@
     <rPh sb="0" eb="3">
       <t>ユウセンド</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1125,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1139,9 +1158,10 @@
     <col min="4" max="4" width="68.5" customWidth="1"/>
     <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="60.25" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1160,8 +1180,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="G1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1180,8 +1203,11 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="G2" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -1200,8 +1226,11 @@
       <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1220,8 +1249,11 @@
       <c r="F4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G4" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1240,8 +1272,11 @@
       <c r="F5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1260,8 +1295,11 @@
       <c r="F6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1276,7 +1314,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1291,7 +1329,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1345,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1321,7 +1359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +1371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
@@ -1354,7 +1392,7 @@
       </c>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1362,7 +1400,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -1370,7 +1408,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1455,7 +1493,7 @@
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="C1:F1048576">
+  <conditionalFormatting sqref="C1:F1048576 G1:G6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="1"/>
